--- a/Jiean/T-SQL事务/词汇量.xlsx
+++ b/Jiean/T-SQL事务/词汇量.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>except</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,9 +46,6 @@
   <si>
     <t>forward</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quarter</t>
   </si>
   <si>
     <r>
@@ -78,12 +75,100 @@
   <si>
     <t>季度</t>
   </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[grɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>授予</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['prɪnsəp(ə)l]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要的</t>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ɔː'θɒrɪtɪ]</t>
+  </si>
+  <si>
+    <t> 权威</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>[dɪ'naɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>['prɒpətɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性质</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +196,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.75"/>
-      <color rgb="FF434343"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9.35"/>
       <color rgb="FF666666"/>
       <name val="Lucida Sans Unicode"/>
@@ -129,6 +207,20 @@
       <name val="BatangChe"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF434343"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,14 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,22 +589,77 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
